--- a/기타/테이블 정의서/테이블 정의서.xlsx
+++ b/기타/테이블 정의서/테이블 정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin00\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin00\OneDrive\문서\GitHub\CsharpProject\기타\테이블 정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0841398C-719E-41D5-9CA6-471DFED282EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05E03CE-EBE5-4F57-844A-E5E0806D1BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>테이블 정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,10 +128,6 @@
   </si>
   <si>
     <t>소분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -257,6 +253,26 @@
   </si>
   <si>
     <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(MAX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,6 +638,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -639,9 +658,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -961,44 +977,44 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="G4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="G4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="11" t="s">
@@ -1028,22 +1044,24 @@
     </row>
     <row r="6" spans="2:10" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="D6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="10"/>
       <c r="G6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="J6" s="10" t="s">
         <v>5</v>
       </c>
@@ -1055,7 +1073,9 @@
       <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="G7" s="2" t="s">
         <v>23</v>
@@ -1063,7 +1083,9 @@
       <c r="H7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
@@ -1073,7 +1095,9 @@
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="G8" s="2" t="s">
         <v>24</v>
@@ -1081,7 +1105,9 @@
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
@@ -1091,7 +1117,9 @@
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="G9" s="2" t="s">
         <v>25</v>
@@ -1099,7 +1127,9 @@
       <c r="H9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
@@ -1109,7 +1139,9 @@
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="G10" s="2" t="s">
         <v>26</v>
@@ -1117,185 +1149,211 @@
       <c r="H10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="G12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="G13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="G15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="G17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="G18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="G19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G20" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="7"/>
     </row>
     <row r="22" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="23" spans="2:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="G25" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
+      <c r="B25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="G25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="11" t="s">
@@ -1341,13 +1399,13 @@
     </row>
     <row r="28" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
       <c r="G28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1355,13 +1413,13 @@
     </row>
     <row r="29" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="G29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1369,13 +1427,13 @@
     </row>
     <row r="30" spans="2:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="G30" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -1383,7 +1441,7 @@
     </row>
     <row r="31" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1391,7 +1449,7 @@
     </row>
     <row r="32" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1399,7 +1457,7 @@
     </row>
     <row r="33" spans="2:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1407,7 +1465,7 @@
     </row>
     <row r="34" spans="2:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1415,7 +1473,7 @@
     </row>
     <row r="35" spans="2:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1423,7 +1481,7 @@
     </row>
     <row r="36" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1431,12 +1489,12 @@
     </row>
     <row r="37" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="38" spans="2:5" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16"/>
+      <c r="B38" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
     </row>
     <row r="39" spans="2:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="11" t="s">
@@ -1478,7 +1536,7 @@
     </row>
     <row r="43" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>

--- a/기타/테이블 정의서/테이블 정의서.xlsx
+++ b/기타/테이블 정의서/테이블 정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin00\OneDrive\문서\GitHub\CsharpProject\기타\테이블 정의서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apf_temp_admin\Documents\GitHub\CsharpProject\기타\테이블 정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05E03CE-EBE5-4F57-844A-E5E0806D1BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CBD238-8E33-47F6-904B-74FCC7BCEF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
   <si>
     <t>테이블 정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,47 @@
   </si>
   <si>
     <t>세분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품정보
+ProductInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바코드(PK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조 회사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byCompany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,29 +1007,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J43"/>
+  <dimension ref="B1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="2" spans="2:10" ht="26.7" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
@@ -1001,8 +1042,8 @@
       <c r="I2" s="19"/>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="4" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="15" t="s">
         <v>32</v>
       </c>
@@ -1016,7 +1057,7 @@
       <c r="I4" s="16"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1042,7 +1083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" ht="16.8" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B6" s="8" t="s">
         <v>60</v>
       </c>
@@ -1066,7 +1107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1088,7 +1129,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1110,7 +1151,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1132,7 +1173,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1154,7 +1195,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B11" s="2" t="s">
         <v>61</v>
       </c>
@@ -1176,7 +1217,7 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1198,7 +1239,7 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1220,7 +1261,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1242,7 +1283,7 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1264,7 +1305,7 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
@@ -1286,7 +1327,7 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.7">
       <c r="G17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1296,7 +1337,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.7">
       <c r="G18" s="2" t="s">
         <v>55</v>
       </c>
@@ -1306,7 +1347,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.7">
       <c r="G19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1316,7 +1357,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="G20" s="5" t="s">
         <v>36</v>
       </c>
@@ -1326,8 +1367,8 @@
       <c r="I20" s="6"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="22" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="23" spans="2:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="23" spans="2:10" ht="26.7" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B23" s="18" t="s">
         <v>0</v>
       </c>
@@ -1340,8 +1381,8 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="25" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="25" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B25" s="15" t="s">
         <v>40</v>
       </c>
@@ -1355,7 +1396,7 @@
       <c r="I25" s="16"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B26" s="11" t="s">
         <v>1</v>
       </c>
@@ -1381,7 +1422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="17.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:10" ht="17.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B27" s="8" t="s">
         <v>7</v>
       </c>
@@ -1397,7 +1438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -1411,7 +1452,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
@@ -1425,7 +1466,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
@@ -1439,7 +1480,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
@@ -1447,7 +1488,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
@@ -1455,7 +1496,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="2:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B33" s="2" t="s">
         <v>48</v>
       </c>
@@ -1463,7 +1504,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="2:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B34" s="2" t="s">
         <v>49</v>
       </c>
@@ -1471,7 +1512,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="2:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B35" s="2" t="s">
         <v>45</v>
       </c>
@@ -1479,7 +1520,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B36" s="5" t="s">
         <v>46</v>
       </c>
@@ -1487,16 +1528,22 @@
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="38" spans="2:5" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="38" spans="2:10" ht="36.549999999999997" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B38" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
       <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="2:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G38" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="2:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B39" s="11" t="s">
         <v>1</v>
       </c>
@@ -1509,41 +1556,115 @@
       <c r="E39" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="G39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="16.8" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="G40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="G41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B43" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
+      <c r="G43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="G44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B23:J23"/>
@@ -1551,6 +1672,7 @@
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G38:J38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기타/테이블 정의서/테이블 정의서.xlsx
+++ b/기타/테이블 정의서/테이블 정의서.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apf_temp_admin\Documents\GitHub\CsharpProject\기타\테이블 정의서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\새 폴더\CsharpProject\기타\테이블 정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CBD238-8E33-47F6-904B-74FCC7BCEF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="13875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$28</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
   <si>
     <t>테이블 정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,26 +50,6 @@
   </si>
   <si>
     <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넘버(PK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넘버(PK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -182,69 +164,6 @@
   </si>
   <si>
     <t>sale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매 기록
-Sales_Record_Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 형태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>품목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구입 형태(환불인지..)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 넘버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">할부 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔돈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구입시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제해야 하는 금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제한 금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마일리지 적립
-Point_Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트 변동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원
-Member_Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 넘버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트 잔여량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -729,7 +648,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="표 스타일 1" pivot="0" count="1">
       <tableStyleElement type="wholeTable" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1006,30 +925,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="2" spans="2:10" ht="26.7" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
@@ -1042,22 +965,22 @@
       <c r="I2" s="19"/>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="4" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
       <c r="G4" s="15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1083,599 +1006,392 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="16.8" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E6" s="10"/>
       <c r="G6" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4"/>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4"/>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4"/>
       <c r="G10" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E11" s="4"/>
       <c r="G11" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E13" s="4"/>
       <c r="G13" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E14" s="4"/>
       <c r="G14" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E15" s="4"/>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E16" s="7"/>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G17" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G18" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G19" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="22" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="23" spans="2:10" ht="26.7" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B23" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="25" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B25" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="G25" s="15" t="s">
+    <row r="21" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B26" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="17.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="B27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="G27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="G28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="G29" s="2" t="s">
+      <c r="D27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="2:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="G30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="2:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B36" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="38" spans="2:10" ht="36.549999999999997" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B38" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-      <c r="G38" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="2:10" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="16.8" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="B40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="4"/>
-      <c r="G40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J40" s="10" t="s">
+      <c r="E27" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="4"/>
-      <c r="G41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="B42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="4"/>
-      <c r="G42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B43" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="7"/>
-      <c r="G43" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="G44" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B38:E38"/>
+  <mergeCells count="4">
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B25:E25"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>